--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value396.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value396.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.367828025039926</v>
+        <v>2.093498229980469</v>
       </c>
       <c r="B1">
-        <v>1.451079863282208</v>
+        <v>3.066576957702637</v>
       </c>
       <c r="C1">
-        <v>1.59198363733858</v>
+        <v>2.392396450042725</v>
       </c>
       <c r="D1">
-        <v>2.355270182786505</v>
+        <v>2.223505735397339</v>
       </c>
       <c r="E1">
-        <v>2.419310000641632</v>
+        <v>1.880835056304932</v>
       </c>
     </row>
   </sheetData>
